--- a/Controle de Investimentos.xlsx
+++ b/Controle de Investimentos.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikson\Desktop\BootCamp Santander Excel com IA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE18B98-A189-43A7-AEA0-9F96A54A13C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612BEDD7-BFCE-4E1F-A0EF-2B3D22F4D2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="0" firstSheet="2" activeTab="2" xr2:uid="{83845EF0-CD17-42F6-89E5-22C001C7251A}"/>
+    <workbookView xWindow="9720" yWindow="0" windowWidth="10875" windowHeight="10905" tabRatio="610" firstSheet="1" activeTab="2" xr2:uid="{83845EF0-CD17-42F6-89E5-22C001C7251A}"/>
   </bookViews>
   <sheets>
     <sheet name="Perguntas de Negócio" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Dashboard" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
     <sheet name="FIIs Controls" sheetId="3" r:id="rId3"/>
     <sheet name="Tabelas de Apoio" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -744,6 +744,7 @@
     <xf numFmtId="9" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,7 +781,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutro" xfId="1" builtinId="28"/>
@@ -847,7 +847,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-5DD3-4A0D-8EE0-22DC58BCC326}"/>
+                <c16:uniqueId val="{00000001-6573-40F5-BF7A-B6DCE26139B6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -867,7 +867,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-5DD3-4A0D-8EE0-22DC58BCC326}"/>
+                <c16:uniqueId val="{00000003-6573-40F5-BF7A-B6DCE26139B6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -887,7 +887,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-5DD3-4A0D-8EE0-22DC58BCC326}"/>
+                <c16:uniqueId val="{00000005-6573-40F5-BF7A-B6DCE26139B6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -907,7 +907,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-5DD3-4A0D-8EE0-22DC58BCC326}"/>
+                <c16:uniqueId val="{00000007-6573-40F5-BF7A-B6DCE26139B6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -927,7 +927,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-5DD3-4A0D-8EE0-22DC58BCC326}"/>
+                <c16:uniqueId val="{00000009-6573-40F5-BF7A-B6DCE26139B6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -947,7 +947,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-5DD3-4A0D-8EE0-22DC58BCC326}"/>
+                <c16:uniqueId val="{0000000B-6573-40F5-BF7A-B6DCE26139B6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -977,7 +977,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-5DD3-4A0D-8EE0-22DC58BCC326}"/>
+                  <c16:uniqueId val="{00000001-6573-40F5-BF7A-B6DCE26139B6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1006,7 +1006,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5DD3-4A0D-8EE0-22DC58BCC326}"/>
+                  <c16:uniqueId val="{00000003-6573-40F5-BF7A-B6DCE26139B6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1035,7 +1035,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-5DD3-4A0D-8EE0-22DC58BCC326}"/>
+                  <c16:uniqueId val="{00000005-6573-40F5-BF7A-B6DCE26139B6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1064,7 +1064,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-5DD3-4A0D-8EE0-22DC58BCC326}"/>
+                  <c16:uniqueId val="{00000007-6573-40F5-BF7A-B6DCE26139B6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1093,7 +1093,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-5DD3-4A0D-8EE0-22DC58BCC326}"/>
+                  <c16:uniqueId val="{00000009-6573-40F5-BF7A-B6DCE26139B6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1122,7 +1122,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-5DD3-4A0D-8EE0-22DC58BCC326}"/>
+                  <c16:uniqueId val="{0000000B-6573-40F5-BF7A-B6DCE26139B6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1235,7 +1235,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5DD3-4A0D-8EE0-22DC58BCC326}"/>
+              <c16:uniqueId val="{0000000C-6573-40F5-BF7A-B6DCE26139B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1258,7 +1258,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-3191-4558-9ECF-EB26229C2EA9}"/>
+                <c16:uniqueId val="{0000000E-6573-40F5-BF7A-B6DCE26139B6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1278,7 +1278,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-3191-4558-9ECF-EB26229C2EA9}"/>
+                <c16:uniqueId val="{00000010-6573-40F5-BF7A-B6DCE26139B6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1298,7 +1298,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-3191-4558-9ECF-EB26229C2EA9}"/>
+                <c16:uniqueId val="{00000012-6573-40F5-BF7A-B6DCE26139B6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1318,7 +1318,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-3191-4558-9ECF-EB26229C2EA9}"/>
+                <c16:uniqueId val="{00000014-6573-40F5-BF7A-B6DCE26139B6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1338,7 +1338,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-3191-4558-9ECF-EB26229C2EA9}"/>
+                <c16:uniqueId val="{00000016-6573-40F5-BF7A-B6DCE26139B6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1358,7 +1358,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-3191-4558-9ECF-EB26229C2EA9}"/>
+                <c16:uniqueId val="{00000018-6573-40F5-BF7A-B6DCE26139B6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1417,7 +1417,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5DD3-4A0D-8EE0-22DC58BCC326}"/>
+              <c16:uniqueId val="{00000019-6573-40F5-BF7A-B6DCE26139B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1527,6 +1527,49 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>126756</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6526DF07-8B55-4F49-BFE1-CD892299BF09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1603,42 +1646,6 @@
         </a:sp3d>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>603739</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>482845</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{384B098D-A3E5-BE3A-7BCD-8D0790DAC4E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2021,22 +2028,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E44F4F-2EBB-4B9B-A8CE-5CEEF2DC199A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{107BECE0-8DBC-4698-A6FF-AA4A6A127C17}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A11:H68"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
           <xlsdti:showDataTypeIcons visible="0"/>
@@ -2055,26 +2066,26 @@
   <sheetData>
     <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:4" ht="24" x14ac:dyDescent="0.25">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
     </row>
     <row r="13" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="49"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="13">
         <v>3950</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -2093,35 +2104,35 @@
     </row>
     <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="12">
         <v>1185</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="49"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="3">
         <v>1.0789999999999999E-2</v>
       </c>
@@ -2130,24 +2141,24 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="54"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="4">
         <f>FV(taxa_mensal,qtd_anos*12,aporte*-1)</f>
         <v>99275.643088207857</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="45">
         <f>aporte*(qtd_anos*12)</f>
         <v>71100</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="56"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="5">
         <f>patrimonio*rendimento_carteira</f>
         <v>595.65385852924715</v>
@@ -2155,10 +2166,10 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="11" t="s">
         <v>14</v>
       </c>
